--- a/GA06_block_map.xlsx
+++ b/GA06_block_map.xlsx
@@ -12102,7 +12102,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>CHAMBLEE</t>
+          <t>CHAMBLEE 2</t>
         </r>
       </text>
     </comment>
@@ -12116,7 +12116,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>CHAMBLEE</t>
+          <t>CHAMBLEE 2</t>
         </r>
       </text>
     </comment>
@@ -12354,7 +12354,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>CHAMBLEE</t>
+          <t>CHAMBLEE 2</t>
         </r>
       </text>
     </comment>
@@ -12368,7 +12368,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>CHAMBLEE</t>
+          <t>CHAMBLEE 2</t>
         </r>
       </text>
     </comment>
@@ -12382,7 +12382,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>CHAMBLEE</t>
+          <t>CHAMBLEE 2</t>
         </r>
       </text>
     </comment>
@@ -14029,7 +14029,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="208">
   <si>
     <t>ML021</t>
   </si>
@@ -14650,6 +14650,9 @@
   </si>
   <si>
     <t>BRIARLAKE ELEM</t>
+  </si>
+  <si>
+    <t>CHAMBLEE 2</t>
   </si>
 </sst>
 </file>
@@ -16446,8 +16449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AR32" sqref="AR32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19108,11 +19111,11 @@
       <c r="AB34" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="AC34" s="183" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD34" s="183" t="s">
-        <v>182</v>
+      <c r="AC34" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD34" s="136" t="s">
+        <v>207</v>
       </c>
       <c r="AE34" s="184" t="s">
         <v>183</v>
@@ -19164,14 +19167,14 @@
       <c r="AA35" s="187" t="s">
         <v>186</v>
       </c>
-      <c r="AB35" s="183" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC35" s="183" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD35" s="183" t="s">
-        <v>182</v>
+      <c r="AB35" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC35" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD35" s="136" t="s">
+        <v>207</v>
       </c>
       <c r="AE35" s="183" t="s">
         <v>182</v>

--- a/GA06_block_map.xlsx
+++ b/GA06_block_map.xlsx
@@ -1630,7 +1630,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Wileo 01</t>
+          <t>Willeo 01</t>
         </r>
       </text>
     </comment>
@@ -1896,7 +1896,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Wileo 01</t>
+          <t>Willeo 01</t>
         </r>
       </text>
     </comment>
@@ -2204,7 +2204,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Wileo 01</t>
+          <t>Willeo 01</t>
         </r>
       </text>
     </comment>
@@ -2540,7 +2540,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Wileo 01</t>
+          <t>Willeo 01</t>
         </r>
       </text>
     </comment>
@@ -2554,7 +2554,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Wileo 01</t>
+          <t>Willeo 01</t>
         </r>
       </text>
     </comment>
@@ -3086,7 +3086,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Shallowford Fall 01</t>
+          <t>Shallowford Falls 01</t>
         </r>
       </text>
     </comment>
@@ -3100,7 +3100,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Shallowford Fall 01</t>
+          <t>Shallowford Falls 01</t>
         </r>
       </text>
     </comment>
@@ -3114,7 +3114,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Shallowford Fall 01</t>
+          <t>Shallowford Falls 01</t>
         </r>
       </text>
     </comment>
@@ -3128,7 +3128,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Wileo 01</t>
+          <t>Willeo 01</t>
         </r>
       </text>
     </comment>
@@ -3562,7 +3562,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Rocky Mountain 01</t>
+          <t>Rocky Mount 01</t>
         </r>
       </text>
     </comment>
@@ -3590,7 +3590,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Lasssiter 01</t>
+          <t>Lassiter 01</t>
         </r>
       </text>
     </comment>
@@ -3674,7 +3674,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Shallowford Fall 01</t>
+          <t>Shallowford Falls 01</t>
         </r>
       </text>
     </comment>
@@ -3688,7 +3688,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Shallowford Fall 01</t>
+          <t>Shallowford Falls 01</t>
         </r>
       </text>
     </comment>
@@ -3702,7 +3702,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Shallowford Fall 01</t>
+          <t>Shallowford Falls 01</t>
         </r>
       </text>
     </comment>
@@ -4136,7 +4136,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Rocky Mountain 01</t>
+          <t>Rocky Mount 01</t>
         </r>
       </text>
     </comment>
@@ -4150,7 +4150,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Rocky Mountain 01</t>
+          <t>Rocky Mount 01</t>
         </r>
       </text>
     </comment>
@@ -4164,7 +4164,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Rocky Mountain 01</t>
+          <t>Rocky Mount 01</t>
         </r>
       </text>
     </comment>
@@ -4178,7 +4178,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Lasssiter 01</t>
+          <t>Lassiter 01</t>
         </r>
       </text>
     </comment>
@@ -4192,7 +4192,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Lasssiter 01</t>
+          <t>Lassiter 01</t>
         </r>
       </text>
     </comment>
@@ -4206,7 +4206,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Lasssiter 01</t>
+          <t>Lassiter 01</t>
         </r>
       </text>
     </comment>
@@ -4276,7 +4276,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Shallowford Fall 01</t>
+          <t>Shallowford Falls 01</t>
         </r>
       </text>
     </comment>
@@ -4780,7 +4780,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Rocky Mountain 01</t>
+          <t>Rocky Mount 01</t>
         </r>
       </text>
     </comment>
@@ -4794,7 +4794,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Rocky Mountain 01</t>
+          <t>Rocky Mount 01</t>
         </r>
       </text>
     </comment>
@@ -4808,7 +4808,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Rocky Mountain 01</t>
+          <t>Rocky Mount 01</t>
         </r>
       </text>
     </comment>
@@ -4822,7 +4822,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Lasssiter 01</t>
+          <t>Lassiter 01</t>
         </r>
       </text>
     </comment>
@@ -4836,7 +4836,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Lasssiter 01</t>
+          <t>Lassiter 01</t>
         </r>
       </text>
     </comment>
@@ -4850,7 +4850,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Lasssiter 01</t>
+          <t>Lassiter 01</t>
         </r>
       </text>
     </comment>
@@ -5494,7 +5494,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Lasssiter 01</t>
+          <t>Lassiter 01</t>
         </r>
       </text>
     </comment>
@@ -10664,6 +10664,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="F30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Terrell Mill 01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G30" authorId="0" shapeId="0">
       <text>
         <r>
@@ -10678,6 +10692,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="H30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Terrell Mill 01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Terrell Mill 01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J30" authorId="0" shapeId="0">
       <text>
         <r>
@@ -11000,6 +11042,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="F31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Terrell Mill 01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Terrell Mill 01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Terrell Mill 01</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L31" authorId="0" shapeId="0">
       <text>
         <r>
@@ -11966,6 +12050,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="P34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SS09A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SS09A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SS09A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SS09A</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T34" authorId="0" shapeId="0">
       <text>
         <r>
@@ -12232,6 +12372,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SS09A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>SS09A</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -12438,7 +12606,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>PLEASANTDALE ELEM</t>
+          <t>PLEASANTDALE ROAD</t>
         </r>
       </text>
     </comment>
@@ -12452,7 +12620,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>PLEASANTDALE ELEM</t>
+          <t>PLEASANTDALE ROAD</t>
         </r>
       </text>
     </comment>
@@ -12676,7 +12844,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>PLEASANTDALE ELEM</t>
+          <t>PLEASANTDALE ROAD</t>
         </r>
       </text>
     </comment>
@@ -12690,7 +12858,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>PLEASANTDALE ELEM</t>
+          <t>PLEASANTDALE ROAD</t>
         </r>
       </text>
     </comment>
@@ -12900,7 +13068,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>PLEASANTDALE ELEM</t>
+          <t>PLEASANTDALE ROAD</t>
         </r>
       </text>
     </comment>
@@ -12914,7 +13082,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>PLEASANTDALE ELEM</t>
+          <t>PLEASANTDALE ROAD</t>
         </r>
       </text>
     </comment>
@@ -14029,7 +14197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="210">
   <si>
     <t>ML021</t>
   </si>
@@ -14139,9 +14307,6 @@
     <t>Post Oak 01</t>
   </si>
   <si>
-    <t>Wileo 01</t>
-  </si>
-  <si>
     <t>RW16</t>
   </si>
   <si>
@@ -14220,9 +14385,6 @@
     <t>Garrison Mill 01</t>
   </si>
   <si>
-    <t>Shallowford Fall 01</t>
-  </si>
-  <si>
     <t>RW03</t>
   </si>
   <si>
@@ -14232,12 +14394,6 @@
     <t>JC15</t>
   </si>
   <si>
-    <t>Rocky Mountain 01</t>
-  </si>
-  <si>
-    <t>Lasssiter 01</t>
-  </si>
-  <si>
     <t>RW02</t>
   </si>
   <si>
@@ -14595,9 +14751,6 @@
     <t>WARREN TECH</t>
   </si>
   <si>
-    <t>PLEASANTDALE ELEM</t>
-  </si>
-  <si>
     <t>SILVER LAKE</t>
   </si>
   <si>
@@ -14653,6 +14806,27 @@
   </si>
   <si>
     <t>CHAMBLEE 2</t>
+  </si>
+  <si>
+    <t>Terrell Mill 01</t>
+  </si>
+  <si>
+    <t>SS09A</t>
+  </si>
+  <si>
+    <t>Willeo 01</t>
+  </si>
+  <si>
+    <t>Shallowford Falls 01</t>
+  </si>
+  <si>
+    <t>Rocky Mount 01</t>
+  </si>
+  <si>
+    <t>Lassiter 01</t>
+  </si>
+  <si>
+    <t>PLEASANTDALE ROAD</t>
   </si>
 </sst>
 </file>
@@ -16449,8 +16623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AR32" sqref="AR32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AK36" sqref="AK36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16822,7 +16996,7 @@
         <v>35</v>
       </c>
       <c r="S11" s="37" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="T11" s="24" t="s">
         <v>23</v>
@@ -16846,7 +17020,7 @@
         <v>29</v>
       </c>
       <c r="AA11" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB11" s="34" t="s">
         <v>33</v>
@@ -16858,10 +17032,10 @@
         <v>33</v>
       </c>
       <c r="AE11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF11" s="40" t="s">
         <v>38</v>
-      </c>
-      <c r="AF11" s="40" t="s">
-        <v>39</v>
       </c>
       <c r="AG11" s="32" t="s">
         <v>31</v>
@@ -16881,16 +17055,16 @@
         <v>35</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="T12" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U12" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V12" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12" s="30" t="s">
         <v>29</v>
@@ -16899,34 +17073,34 @@
         <v>29</v>
       </c>
       <c r="Y12" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z12" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA12" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB12" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AC12" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD12" s="44" t="s">
-        <v>43</v>
-      </c>
       <c r="AE12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG12" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AF12" s="40" t="s">
+      <c r="AH12" s="41" t="s">
         <v>39</v>
-      </c>
-      <c r="AG12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH12" s="41" t="s">
-        <v>40</v>
       </c>
       <c r="AI12" s="32" t="s">
         <v>31</v>
@@ -16949,70 +17123,70 @@
         <v>35</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="T13" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="42" t="s">
+      <c r="AB13" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="V13" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="45" t="s">
+      <c r="AC13" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="Y13" s="45" t="s">
+      <c r="AD13" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA13" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB13" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC13" s="46" t="s">
+      <c r="AE13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH13" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AD13" s="46" t="s">
+      <c r="AI13" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AE13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH13" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI13" s="47" t="s">
-        <v>46</v>
-      </c>
       <c r="AJ13" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK13" s="32" t="s">
         <v>31</v>
       </c>
       <c r="AL13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN13" s="49" t="s">
         <v>47</v>
-      </c>
-      <c r="AM13" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN13" s="49" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -17023,2525 +17197,2561 @@
         <v>35</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="T14" s="37" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="U14" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V14" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W14" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X14" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y14" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z14" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA14" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="Y14" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA14" s="51" t="s">
+      <c r="AB14" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="AB14" s="52" t="s">
+      <c r="AC14" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="53" t="s">
+      <c r="AD14" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE14" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AD14" s="53" t="s">
+      <c r="AF14" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AE14" s="54" t="s">
+      <c r="AG14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AF14" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH14" s="55" t="s">
+      <c r="AI14" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ14" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK14" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL14" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI14" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ14" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK14" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL14" s="56" t="s">
+      <c r="AM14" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="AM14" s="57" t="s">
-        <v>56</v>
-      </c>
       <c r="AN14" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO14" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="59" t="s">
+      <c r="H15" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="I15" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="J15" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="K15" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="L15" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="N15" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="62" t="s">
+      <c r="O15" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="62" t="s">
+      <c r="P15" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="63" t="s">
+      <c r="Q15" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="R15" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="S15" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="T15" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="U15" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y15" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="P15" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="64" t="s">
+      <c r="Z15" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="R15" s="64" t="s">
+      <c r="AA15" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="S15" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="T15" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="V15" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="W15" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="X15" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z15" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA15" s="66" t="s">
-        <v>65</v>
-      </c>
       <c r="AB15" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD15" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE15" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AC15" s="53" t="s">
+      <c r="AF15" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AD15" s="53" t="s">
+      <c r="AG15" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AE15" s="54" t="s">
+      <c r="AH15" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AF15" s="54" t="s">
+      <c r="AI15" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AG15" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH15" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI15" s="55" t="s">
-        <v>54</v>
-      </c>
       <c r="AJ15" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK15" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL15" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM15" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AN15" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AO15" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP15" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="G16" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="59" t="s">
+      <c r="H16" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="I16" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="J16" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="68" t="s">
+      <c r="L16" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="S16" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="T16" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="U16" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="V16" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W16" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y16" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z16" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA16" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB16" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD16" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE16" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF16" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="69" t="s">
+      <c r="AG16" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH16" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI16" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ16" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK16" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="S16" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="T16" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="U16" s="70" t="s">
+      <c r="AL16" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="W16" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="X16" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y16" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z16" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA16" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB16" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC16" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD16" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE16" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF16" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG16" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH16" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI16" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ16" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK16" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL16" s="74" t="s">
-        <v>73</v>
-      </c>
       <c r="AM16" s="74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AN16" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AO16" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP16" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AQ16" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AR16" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="M17" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="77" t="s">
+      <c r="Q17" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="S17" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="78" t="s">
+      <c r="T17" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="V17" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="W17" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z17" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="AB17" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC17" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD17" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE17" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF17" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="AG17" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="69" t="s">
+      <c r="AH17" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI17" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ17" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK17" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" s="79" t="s">
+      <c r="AL17" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" s="80" t="s">
+      <c r="AM17" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN17" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO17" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP17" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="80" t="s">
+      <c r="AQ17" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="R17" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="S17" s="81" t="s">
+      <c r="AR17" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="T17" s="81" t="s">
+      <c r="AS17" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="U17" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="V17" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="W17" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="X17" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y17" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z17" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA17" s="82" t="s">
+      <c r="AT17" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="AB17" s="82" t="s">
+      <c r="AU17" s="86" t="s">
         <v>81</v>
-      </c>
-      <c r="AC17" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD17" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE17" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF17" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG17" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH17" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI17" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ17" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK17" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL17" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM17" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN17" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO17" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP17" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ17" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR17" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS17" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT17" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU17" s="86" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I18" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="M18" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="N18" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="P18" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="Q18" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="S18" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="T18" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="V18" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="W18" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="X18" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z18" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="78" t="s">
+      <c r="AA18" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="AB18" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC18" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD18" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE18" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF18" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="69" t="s">
+      <c r="AG18" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH18" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI18" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ18" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="AK18" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="79" t="s">
+      <c r="AL18" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="80" t="s">
+      <c r="AM18" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN18" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO18" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP18" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ18" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="P18" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="R18" s="81" t="s">
+      <c r="AR18" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="S18" s="81" t="s">
+      <c r="AS18" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="T18" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="U18" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="V18" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="W18" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="X18" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y18" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z18" s="82" t="s">
+      <c r="AT18" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="AA18" s="82" t="s">
+      <c r="AU18" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="AB18" s="82" t="s">
+      <c r="AV18" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="AC18" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD18" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE18" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF18" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG18" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH18" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI18" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ18" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK18" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL18" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM18" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN18" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO18" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP18" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ18" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR18" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS18" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT18" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU18" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV18" s="86" t="s">
-        <v>85</v>
-      </c>
       <c r="AW18" s="86" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="M19" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="W19" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="91" t="s">
+      <c r="X19" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y19" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="92" t="s">
+      <c r="Z19" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA19" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB19" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="93" t="s">
+      <c r="AC19" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD19" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE19" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF19" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG19" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH19" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI19" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="93" t="s">
+      <c r="AJ19" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="93" t="s">
+      <c r="AK19" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="L19" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="79" t="s">
+      <c r="AL19" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="N19" s="79" t="s">
+      <c r="AM19" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="O19" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="T19" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="U19" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="V19" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="W19" s="94" t="s">
+      <c r="AN19" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO19" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP19" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ19" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="X19" s="94" t="s">
+      <c r="AR19" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="Y19" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z19" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA19" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB19" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC19" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD19" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE19" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF19" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG19" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH19" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI19" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ19" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK19" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL19" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM19" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN19" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO19" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP19" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ19" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR19" s="98" t="s">
-        <v>97</v>
-      </c>
       <c r="AS19" s="86" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AT19" s="86" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AU19" s="86" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AV19" s="86" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="S20" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="W20" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="92" t="s">
+      <c r="X20" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y20" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z20" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA20" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="92" t="s">
+      <c r="AB20" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="93" t="s">
+      <c r="AC20" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD20" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE20" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF20" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG20" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH20" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI20" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ20" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="79" t="s">
+      <c r="AK20" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL20" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="79" t="s">
+      <c r="AM20" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q20" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="S20" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="T20" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="U20" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="V20" s="94" t="s">
+      <c r="AN20" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO20" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP20" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="W20" s="94" t="s">
+      <c r="AQ20" s="98" t="s">
         <v>93</v>
-      </c>
-      <c r="X20" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y20" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z20" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA20" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB20" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC20" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD20" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE20" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF20" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG20" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI20" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ20" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK20" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL20" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM20" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN20" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO20" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP20" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ20" s="98" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E21" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="O21" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="S21" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="T21" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="U21" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="V21" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="99" t="s">
+      <c r="W21" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="X21" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y21" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z21" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA21" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB21" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC21" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD21" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE21" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF21" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG21" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="99" t="s">
+      <c r="AH21" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="99" t="s">
+      <c r="AI21" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="L21" s="99" t="s">
+      <c r="AJ21" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="N21" s="100" t="s">
+      <c r="AK21" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL21" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="O21" s="100" t="s">
+      <c r="AM21" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="100" t="s">
+      <c r="AN21" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="Q21" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="R21" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="S21" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="T21" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="U21" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="V21" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="W21" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="X21" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y21" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z21" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA21" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB21" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC21" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD21" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE21" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF21" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG21" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH21" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI21" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ21" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK21" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL21" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM21" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN21" s="104" t="s">
-        <v>103</v>
-      </c>
       <c r="AO21" s="89" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AP21" s="98" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D22" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="S22" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="T22" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="U22" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="V22" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="W22" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="X22" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="106" t="s">
+      <c r="Y22" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z22" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="106" t="s">
+      <c r="AA22" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="106" t="s">
+      <c r="AB22" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="N22" s="100" t="s">
+      <c r="AC22" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD22" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE22" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF22" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG22" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH22" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI22" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ22" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK22" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL22" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM22" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="O22" s="100" t="s">
+      <c r="AN22" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="P22" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="R22" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="S22" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="T22" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="U22" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="V22" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="W22" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="X22" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y22" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z22" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA22" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB22" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC22" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD22" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE22" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF22" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG22" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH22" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI22" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ22" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK22" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL22" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM22" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN22" s="104" t="s">
-        <v>103</v>
-      </c>
       <c r="AO22" s="104" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AP22" s="104" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="105" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E23" s="105" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F23" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="S23" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="T23" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="U23" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="V23" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y23" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z23" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA23" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB23" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC23" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD23" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE23" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF23" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG23" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH23" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="118" t="s">
+      <c r="AI23" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="L23" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="N23" s="119" t="s">
+      <c r="AJ23" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL23" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM23" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="O23" s="119" t="s">
+      <c r="AN23" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="P23" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q23" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="R23" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="S23" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="T23" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="U23" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="V23" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="W23" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="X23" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y23" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z23" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA23" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB23" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC23" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD23" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE23" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF23" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG23" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH23" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI23" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ23" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL23" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM23" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN23" s="123" t="s">
-        <v>122</v>
-      </c>
       <c r="AO23" s="123" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="O24" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="R24" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="T24" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="V24" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="W24" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="117" t="s">
+      <c r="X24" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y24" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z24" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA24" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB24" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC24" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="118" t="s">
+      <c r="AD24" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE24" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF24" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG24" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH24" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="126" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="126" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="M24" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="N24" s="119" t="s">
+      <c r="AN24" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="O24" s="119" t="s">
+      <c r="AO24" s="123" t="s">
         <v>118</v>
-      </c>
-      <c r="P24" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q24" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="R24" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="S24" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="T24" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="U24" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="V24" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="W24" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="X24" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y24" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z24" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA24" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB24" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC24" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD24" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE24" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF24" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG24" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH24" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN24" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO24" s="123" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="117" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25" s="117" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F25" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="R25" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="S25" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="T25" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="U25" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="V25" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="W25" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="X25" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y25" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="126" t="s">
+      <c r="Z25" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA25" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB25" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="J25" s="126" t="s">
+      <c r="AC25" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="126" t="s">
+      <c r="AD25" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="131" t="s">
+      <c r="AE25" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF25" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG25" s="135" t="s">
         <v>130</v>
-      </c>
-      <c r="M25" s="131" t="s">
-        <v>130</v>
-      </c>
-      <c r="N25" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="O25" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="P25" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q25" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="R25" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="S25" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="T25" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="U25" s="133" t="s">
-        <v>132</v>
-      </c>
-      <c r="V25" s="133" t="s">
-        <v>132</v>
-      </c>
-      <c r="W25" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="X25" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y25" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z25" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA25" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB25" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC25" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD25" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE25" s="134" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF25" s="134" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG25" s="135" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="117" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F26" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="N26" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="O26" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="127" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="R26" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="S26" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="T26" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="U26" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="V26" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="W26" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="X26" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="125" t="s">
+      <c r="Y26" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="126" t="s">
+      <c r="Z26" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA26" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB26" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="126" t="s">
+      <c r="AC26" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="131" t="s">
+      <c r="AD26" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE26" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF26" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG26" s="135" t="s">
         <v>130</v>
-      </c>
-      <c r="L26" s="131" t="s">
-        <v>130</v>
-      </c>
-      <c r="M26" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="N26" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="O26" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="P26" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="R26" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="S26" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="T26" s="133" t="s">
-        <v>132</v>
-      </c>
-      <c r="U26" s="133" t="s">
-        <v>132</v>
-      </c>
-      <c r="V26" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="W26" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="X26" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y26" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z26" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA26" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB26" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC26" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD26" s="134" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE26" s="134" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF26" s="134" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG26" s="135" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E27" s="117" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F27" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="O27" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="P27" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q27" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="R27" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="S27" s="140" t="s">
+        <v>135</v>
+      </c>
+      <c r="T27" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="U27" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="V27" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="139" t="s">
+      <c r="W27" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="139" t="s">
+      <c r="X27" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="I27" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="J27" s="131" t="s">
+      <c r="Y27" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z27" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA27" s="144" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB27" s="144" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC27" s="145" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD27" s="145" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE27" s="134" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF27" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG27" s="135" t="s">
         <v>130</v>
-      </c>
-      <c r="K27" s="131" t="s">
-        <v>130</v>
-      </c>
-      <c r="L27" s="131" t="s">
-        <v>130</v>
-      </c>
-      <c r="M27" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="O27" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="P27" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q27" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="R27" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="S27" s="140" t="s">
-        <v>139</v>
-      </c>
-      <c r="T27" s="141" t="s">
-        <v>140</v>
-      </c>
-      <c r="U27" s="141" t="s">
-        <v>140</v>
-      </c>
-      <c r="V27" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="W27" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="X27" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y27" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z27" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA27" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB27" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC27" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD27" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE27" s="134" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF27" s="146" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG27" s="135" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="N28" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="O28" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q28" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="R28" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="S28" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="T28" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="U28" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="139" t="s">
+      <c r="V28" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="W28" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="I28" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="L28" s="148" t="s">
+      <c r="X28" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="M28" s="148" t="s">
-        <v>147</v>
-      </c>
-      <c r="N28" s="149" t="s">
-        <v>148</v>
-      </c>
-      <c r="O28" s="149" t="s">
-        <v>148</v>
-      </c>
-      <c r="P28" s="149" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q28" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="R28" s="150" t="s">
-        <v>149</v>
-      </c>
-      <c r="S28" s="151" t="s">
-        <v>150</v>
-      </c>
-      <c r="T28" s="151" t="s">
-        <v>150</v>
-      </c>
-      <c r="U28" s="142" t="s">
+      <c r="Y28" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z28" s="144" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA28" s="144" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB28" s="145" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC28" s="145" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD28" s="145" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE28" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="V28" s="142" t="s">
+      <c r="AF28" s="146" t="s">
         <v>141</v>
-      </c>
-      <c r="W28" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="X28" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y28" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z28" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA28" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB28" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC28" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD28" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE28" s="146" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF28" s="146" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="M29" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="N29" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="O29" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q29" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="R29" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="S29" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="T29" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="U29" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="V29" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="G29" s="139" t="s">
+      <c r="W29" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="K29" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="L29" s="148" t="s">
+      <c r="X29" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="148" t="s">
+      <c r="Y29" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="N29" s="149" t="s">
+      <c r="Z29" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA29" s="144" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB29" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC29" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD29" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="O29" s="149" t="s">
+      <c r="AE29" s="153" t="s">
         <v>148</v>
-      </c>
-      <c r="P29" s="149" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q29" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="R29" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="S29" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="T29" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="U29" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="V29" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="W29" s="143" t="s">
-        <v>142</v>
-      </c>
-      <c r="X29" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y29" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z29" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA29" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB29" s="156" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC29" s="156" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD29" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE29" s="153" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="108" t="s">
+        <v>203</v>
+      </c>
       <c r="G30" s="157" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="I30" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="L30" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="M30" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="N30" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="O30" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q30" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="R30" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="S30" s="159" t="s">
+        <v>154</v>
+      </c>
+      <c r="T30" s="159" t="s">
+        <v>154</v>
+      </c>
+      <c r="U30" s="142" t="s">
+        <v>137</v>
+      </c>
+      <c r="V30" s="160" t="s">
+        <v>155</v>
+      </c>
+      <c r="W30" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="X30" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y30" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="J30" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="K30" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="L30" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="M30" s="148" t="s">
-        <v>147</v>
-      </c>
-      <c r="N30" s="149" t="s">
+      <c r="Z30" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA30" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB30" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC30" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD30" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE30" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="O30" s="158" t="s">
+      <c r="AF30" s="162" t="s">
         <v>157</v>
-      </c>
-      <c r="P30" s="158" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q30" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="R30" s="155" t="s">
-        <v>154</v>
-      </c>
-      <c r="S30" s="159" t="s">
-        <v>158</v>
-      </c>
-      <c r="T30" s="159" t="s">
-        <v>158</v>
-      </c>
-      <c r="U30" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="V30" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="W30" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="X30" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y30" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z30" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA30" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB30" s="156" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC30" s="156" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD30" s="156" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE30" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF30" s="162" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="31" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="108" t="s">
+        <v>203</v>
+      </c>
       <c r="L31" s="163" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" s="164" t="s">
+        <v>159</v>
+      </c>
+      <c r="N31" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="O31" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="P31" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" s="165" t="s">
+        <v>160</v>
+      </c>
+      <c r="R31" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="S31" s="155" t="s">
+        <v>150</v>
+      </c>
+      <c r="T31" s="166" t="s">
+        <v>161</v>
+      </c>
+      <c r="U31" s="167" t="s">
         <v>162</v>
       </c>
-      <c r="M31" s="164" t="s">
+      <c r="V31" s="168" t="s">
         <v>163</v>
       </c>
-      <c r="N31" s="158" t="s">
+      <c r="W31" s="168" t="s">
+        <v>163</v>
+      </c>
+      <c r="X31" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y31" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z31" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA31" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB31" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC31" s="169" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD31" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="O31" s="158" t="s">
+      <c r="AE31" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="P31" s="158" t="s">
+      <c r="AF31" s="162" t="s">
         <v>157</v>
-      </c>
-      <c r="Q31" s="165" t="s">
-        <v>164</v>
-      </c>
-      <c r="R31" s="155" t="s">
-        <v>154</v>
-      </c>
-      <c r="S31" s="155" t="s">
-        <v>154</v>
-      </c>
-      <c r="T31" s="166" t="s">
-        <v>165</v>
-      </c>
-      <c r="U31" s="167" t="s">
-        <v>166</v>
-      </c>
-      <c r="V31" s="168" t="s">
-        <v>167</v>
-      </c>
-      <c r="W31" s="168" t="s">
-        <v>167</v>
-      </c>
-      <c r="X31" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y31" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z31" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA31" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB31" s="156" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC31" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD31" s="162" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE31" s="162" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF31" s="162" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M32" s="164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N32" s="158" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O32" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="P32" s="170" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q32" s="165" t="s">
+        <v>160</v>
+      </c>
+      <c r="R32" s="171" t="s">
+        <v>166</v>
+      </c>
+      <c r="S32" s="171" t="s">
+        <v>166</v>
+      </c>
+      <c r="T32" s="172" t="s">
+        <v>167</v>
+      </c>
+      <c r="U32" s="173" t="s">
+        <v>168</v>
+      </c>
+      <c r="V32" s="174" t="s">
         <v>169</v>
       </c>
-      <c r="P32" s="170" t="s">
+      <c r="W32" s="174" t="s">
         <v>169</v>
       </c>
-      <c r="Q32" s="165" t="s">
+      <c r="X32" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y32" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z32" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA32" s="176" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB32" s="176" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC32" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="R32" s="171" t="s">
-        <v>170</v>
-      </c>
-      <c r="S32" s="171" t="s">
-        <v>170</v>
-      </c>
-      <c r="T32" s="172" t="s">
-        <v>171</v>
-      </c>
-      <c r="U32" s="173" t="s">
+      <c r="AD32" s="169" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE32" s="169" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF32" s="177" t="s">
         <v>172</v>
-      </c>
-      <c r="V32" s="174" t="s">
-        <v>173</v>
-      </c>
-      <c r="W32" s="174" t="s">
-        <v>173</v>
-      </c>
-      <c r="X32" s="175" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y32" s="175" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z32" s="175" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA32" s="176" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB32" s="176" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC32" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD32" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE32" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF32" s="177" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="33" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L33" s="164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M33" s="164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N33" s="164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O33" s="170" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P33" s="170" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q33" s="165" t="s">
+        <v>160</v>
+      </c>
+      <c r="R33" s="178" t="s">
+        <v>173</v>
+      </c>
+      <c r="S33" s="178" t="s">
+        <v>173</v>
+      </c>
+      <c r="T33" s="179" t="s">
+        <v>174</v>
+      </c>
+      <c r="U33" s="179" t="s">
+        <v>174</v>
+      </c>
+      <c r="V33" s="179" t="s">
+        <v>174</v>
+      </c>
+      <c r="W33" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="X33" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y33" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z33" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA33" s="176" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB33" s="176" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC33" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="R33" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="S33" s="178" t="s">
-        <v>177</v>
-      </c>
-      <c r="T33" s="179" t="s">
-        <v>178</v>
-      </c>
-      <c r="U33" s="179" t="s">
-        <v>178</v>
-      </c>
-      <c r="V33" s="179" t="s">
-        <v>178</v>
-      </c>
-      <c r="W33" s="180" t="s">
-        <v>179</v>
-      </c>
-      <c r="X33" s="175" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y33" s="175" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z33" s="181" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA33" s="176" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB33" s="176" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC33" s="169" t="s">
-        <v>168</v>
-      </c>
       <c r="AD33" s="169" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AE33" s="177" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AF33" s="177" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG33" s="177" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K34" s="182" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L34" s="164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M34" s="164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N34" s="164" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O34" s="170" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="P34" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q34" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="R34" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="S34" s="120" t="s">
+        <v>204</v>
       </c>
       <c r="T34" s="179" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U34" s="179" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="V34" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="W34" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="X34" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y34" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z34" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA34" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB34" s="176" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC34" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD34" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE34" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="W34" s="180" t="s">
+      <c r="AF34" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="X34" s="181" t="s">
+      <c r="AG34" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="Y34" s="181" t="s">
+      <c r="AH34" s="185" t="s">
         <v>180</v>
-      </c>
-      <c r="Z34" s="181" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA34" s="181" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB34" s="176" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC34" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD34" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE34" s="184" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF34" s="184" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG34" s="185" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH34" s="185" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="35" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K35" s="186" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L35" s="186" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M35" s="186" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N35" s="186" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="Q35" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="R35" s="120" t="s">
+        <v>204</v>
       </c>
       <c r="T35" s="179" t="s">
+        <v>174</v>
+      </c>
+      <c r="U35" s="179" t="s">
+        <v>174</v>
+      </c>
+      <c r="V35" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="W35" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="X35" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y35" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z35" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA35" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB35" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC35" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD35" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE35" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="U35" s="179" t="s">
-        <v>178</v>
-      </c>
-      <c r="V35" s="180" t="s">
-        <v>179</v>
-      </c>
-      <c r="W35" s="181" t="s">
+      <c r="AF35" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG35" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="X35" s="181" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y35" s="187" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z35" s="187" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA35" s="187" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB35" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC35" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD35" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE35" s="183" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF35" s="188" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG35" s="185" t="s">
-        <v>184</v>
-      </c>
       <c r="AH35" s="189" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="AI35" s="189" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L36" s="186" t="s">
+        <v>181</v>
+      </c>
+      <c r="U36" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="V36" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="W36" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="X36" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y36" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z36" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA36" s="187" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB36" s="191" t="s">
         <v>185</v>
       </c>
-      <c r="U36" s="180" t="s">
-        <v>179</v>
-      </c>
-      <c r="V36" s="180" t="s">
-        <v>179</v>
-      </c>
-      <c r="W36" s="190" t="s">
-        <v>189</v>
-      </c>
-      <c r="X36" s="190" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y36" s="187" t="s">
+      <c r="AC36" s="191" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD36" s="183" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE36" s="183" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF36" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG36" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="Z36" s="187" t="s">
+      <c r="AH36" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="AA36" s="187" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB36" s="191" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC36" s="191" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD36" s="183" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE36" s="183" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF36" s="188" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG36" s="192" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH36" s="192" t="s">
-        <v>191</v>
-      </c>
       <c r="AI36" s="189" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="AJ36" s="189" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V37" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="W37" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="X37" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y37" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z37" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA37" s="191" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB37" s="191" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC37" s="191" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD37" s="193" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE37" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF37" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG37" s="195" t="s">
         <v>189</v>
       </c>
-      <c r="W37" s="190" t="s">
-        <v>189</v>
-      </c>
-      <c r="X37" s="190" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y37" s="190" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z37" s="190" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA37" s="191" t="s">
+      <c r="AH37" s="192" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI37" s="196" t="s">
         <v>190</v>
       </c>
-      <c r="AB37" s="191" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC37" s="191" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD37" s="193" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE37" s="194" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF37" s="194" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG37" s="195" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH37" s="192" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI37" s="196" t="s">
-        <v>195</v>
-      </c>
       <c r="AJ37" s="189" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="AK37" s="189" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X38" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y38" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z38" s="197" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA38" s="197" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB38" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC38" s="193" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD38" s="193" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE38" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF38" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG38" s="195" t="s">
         <v>189</v>
       </c>
-      <c r="Y38" s="190" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z38" s="197" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA38" s="197" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB38" s="198" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC38" s="193" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD38" s="193" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE38" s="194" t="s">
+      <c r="AH38" s="192" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI38" s="196" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ38" s="196" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK38" s="199" t="s">
         <v>193</v>
       </c>
-      <c r="AF38" s="194" t="s">
+      <c r="AL38" s="199" t="s">
         <v>193</v>
-      </c>
-      <c r="AG38" s="195" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH38" s="192" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI38" s="196" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ38" s="196" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK38" s="199" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL38" s="199" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="39" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X39" s="197" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Y39" s="197" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Z39" s="197" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AA39" s="198" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AB39" s="198" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AC39" s="193" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AD39" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE39" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF39" s="195" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG39" s="195" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH39" s="192" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI39" s="196" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ39" s="200" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK39" s="199" t="s">
         <v>193</v>
       </c>
-      <c r="AE39" s="194" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF39" s="195" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG39" s="195" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH39" s="192" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI39" s="196" t="s">
+      <c r="AL39" s="205" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM39" s="201" t="s">
         <v>195</v>
-      </c>
-      <c r="AJ39" s="200" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK39" s="199" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL39" s="205" t="s">
-        <v>204</v>
-      </c>
-      <c r="AM39" s="201" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="40" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X40" s="197" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y40" s="197" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z40" s="202" t="s">
         <v>196</v>
       </c>
-      <c r="Y40" s="197" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z40" s="202" t="s">
-        <v>201</v>
-      </c>
       <c r="AA40" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB40" s="193" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC40" s="193" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD40" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE40" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="AB40" s="193" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC40" s="193" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD40" s="194" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE40" s="203" t="s">
-        <v>202</v>
-      </c>
       <c r="AF40" s="195" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG40" s="195" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH40" s="204" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI40" s="204" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ40" s="200" t="s">
         <v>194</v>
       </c>
-      <c r="AG40" s="195" t="s">
+      <c r="AK40" s="200" t="s">
         <v>194</v>
       </c>
-      <c r="AH40" s="204" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI40" s="204" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ40" s="200" t="s">
+      <c r="AL40" s="205" t="s">
         <v>199</v>
       </c>
-      <c r="AK40" s="200" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL40" s="205" t="s">
-        <v>204</v>
-      </c>
       <c r="AM40" s="201" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AN40" s="201" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AO40" s="201" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AP40" s="201" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X41" s="206" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="206" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Z41" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA41" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB41" s="193" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC41" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD41" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE41" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF41" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG41" s="207" t="s">
         <v>201</v>
       </c>
-      <c r="AA41" s="202" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB41" s="193" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC41" s="203" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD41" s="203" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE41" s="203" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF41" s="203" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG41" s="207" t="s">
-        <v>206</v>
-      </c>
       <c r="AH41" s="204" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI41" s="204" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AJ41" s="200" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK41" s="205" t="s">
         <v>199</v>
       </c>
-      <c r="AK41" s="205" t="s">
-        <v>204</v>
-      </c>
       <c r="AL41" s="205" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AM41" s="205" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AP41" s="201" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X42" s="206" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Y42" s="206" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Z42" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB42" s="193" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE42" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF42" s="207" t="s">
         <v>201</v>
       </c>
-      <c r="AB42" s="193" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE42" s="203" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF42" s="207" t="s">
-        <v>206</v>
-      </c>
       <c r="AG42" s="207" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AH42" s="204" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI42" s="204" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AJ42" s="200" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AE43" s="203" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AF43" s="207" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/GA06_block_map.xlsx
+++ b/GA06_block_map.xlsx
@@ -10664,20 +10664,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Terrell Mill 01</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G30" authorId="0" shapeId="0">
       <text>
         <r>
@@ -10692,34 +10678,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Terrell Mill 01</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Terrell Mill 01</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="J30" authorId="0" shapeId="0">
       <text>
         <r>
@@ -11042,48 +11000,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Terrell Mill 01</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Terrell Mill 01</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H31" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Terrell Mill 01</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="L31" authorId="0" shapeId="0">
       <text>
         <r>
@@ -12050,62 +11966,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="P34" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>SS09A</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q34" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>SS09A</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R34" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>SS09A</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S34" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>SS09A</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="T34" authorId="0" shapeId="0">
       <text>
         <r>
@@ -12369,34 +12229,6 @@
             <scheme val="minor"/>
           </rPr>
           <t>Chattahoochee 01</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>SS09A</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R35" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>SS09A</t>
         </r>
       </text>
     </comment>
@@ -14197,7 +14029,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="208">
   <si>
     <t>ML021</t>
   </si>
@@ -14806,12 +14638,6 @@
   </si>
   <si>
     <t>CHAMBLEE 2</t>
-  </si>
-  <si>
-    <t>Terrell Mill 01</t>
-  </si>
-  <si>
-    <t>SS09A</t>
   </si>
   <si>
     <t>Willeo 01</t>
@@ -16624,7 +16450,7 @@
   <dimension ref="A1:AW43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AK36" sqref="AK36"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16996,7 +16822,7 @@
         <v>35</v>
       </c>
       <c r="S11" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T11" s="24" t="s">
         <v>23</v>
@@ -17055,7 +16881,7 @@
         <v>35</v>
       </c>
       <c r="S12" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T12" s="42" t="s">
         <v>40</v>
@@ -17123,7 +16949,7 @@
         <v>35</v>
       </c>
       <c r="S13" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T13" s="42" t="s">
         <v>40</v>
@@ -17197,10 +17023,10 @@
         <v>35</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T14" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U14" s="42" t="s">
         <v>40</v>
@@ -17316,16 +17142,16 @@
         <v>61</v>
       </c>
       <c r="Q15" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R15" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S15" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T15" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U15" s="42" t="s">
         <v>40</v>
@@ -17420,13 +17246,13 @@
         <v>58</v>
       </c>
       <c r="J16" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K16" s="61" t="s">
         <v>59</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M16" s="62" t="s">
         <v>60</v>
@@ -17444,13 +17270,13 @@
         <v>61</v>
       </c>
       <c r="R16" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S16" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="T16" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U16" s="70" t="s">
         <v>65</v>
@@ -17545,22 +17371,22 @@
         <v>73</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I17" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K17" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L17" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M17" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N17" s="79" t="s">
         <v>74</v>
@@ -17575,7 +17401,7 @@
         <v>75</v>
       </c>
       <c r="R17" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S17" s="81" t="s">
         <v>76</v>
@@ -17685,22 +17511,22 @@
         <v>73</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K18" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L18" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M18" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N18" s="79" t="s">
         <v>74</v>
@@ -17840,7 +17666,7 @@
         <v>88</v>
       </c>
       <c r="L19" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M19" s="79" t="s">
         <v>74</v>
@@ -18971,18 +18797,9 @@
       </c>
     </row>
     <row r="30" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="108" t="s">
-        <v>203</v>
-      </c>
       <c r="G30" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="I30" s="108" t="s">
-        <v>203</v>
-      </c>
       <c r="J30" s="147" t="s">
         <v>142</v>
       </c>
@@ -19054,15 +18871,6 @@
       </c>
     </row>
     <row r="31" spans="2:49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="H31" s="108" t="s">
-        <v>203</v>
-      </c>
       <c r="L31" s="163" t="s">
         <v>158</v>
       </c>
@@ -19276,18 +19084,6 @@
       <c r="O34" s="170" t="s">
         <v>165</v>
       </c>
-      <c r="P34" s="120" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q34" s="120" t="s">
-        <v>204</v>
-      </c>
-      <c r="R34" s="120" t="s">
-        <v>204</v>
-      </c>
-      <c r="S34" s="120" t="s">
-        <v>204</v>
-      </c>
       <c r="T34" s="179" t="s">
         <v>174</v>
       </c>
@@ -19347,12 +19143,6 @@
       <c r="N35" s="186" t="s">
         <v>181</v>
       </c>
-      <c r="Q35" s="120" t="s">
-        <v>204</v>
-      </c>
-      <c r="R35" s="120" t="s">
-        <v>204</v>
-      </c>
       <c r="T35" s="179" t="s">
         <v>174</v>
       </c>
@@ -19396,10 +19186,10 @@
         <v>180</v>
       </c>
       <c r="AH35" s="189" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AI35" s="189" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -19449,10 +19239,10 @@
         <v>186</v>
       </c>
       <c r="AI36" s="189" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AJ36" s="189" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -19499,10 +19289,10 @@
         <v>190</v>
       </c>
       <c r="AJ37" s="189" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK37" s="189" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="11:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
